--- a/Process Results/Unified_Claims_Liability_Report_2024-12.xlsx
+++ b/Process Results/Unified_Claims_Liability_Report_2024-12.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://actrisk-my.sharepoint.com/personal/sofia_moretti_actrisk_com/Documents/Documents/GitHub/DMI_IBNP/Process Results/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SMoretti\OneDrive - ARM\Documents\GitHub\DMI_IBNP\Process Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="70" documentId="13_ncr:1_{531EED24-1343-4D1E-BBDC-0710FF6B6A67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{301A9946-90FC-4F56-87A6-D147B4221437}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63F125D9-C6D2-4DA4-A685-EC25BF1BCFAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9B94C235-4B85-4887-832D-FBC296CFB081}"/>
   </bookViews>
@@ -100,7 +100,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>Company_Code</t>
   </si>
@@ -207,16 +207,10 @@
     <t>Check</t>
   </si>
   <si>
-    <t>* We don’t yet have premium data for this block. These are October numbers</t>
-  </si>
-  <si>
-    <t>* We don’t yet have premium data for this block. These are November numbers</t>
-  </si>
-  <si>
-    <t>* The premium that we have is not accurate. We have to wait for all the information to be loaded!</t>
-  </si>
-  <si>
     <t>Claims Liability Reserves - December 2024</t>
+  </si>
+  <si>
+    <t>* We don’t have premium data for this block. These are October numbers</t>
   </si>
 </sst>
 </file>
@@ -422,7 +416,7 @@
       <sheetData sheetId="2">
         <row r="33">
           <cell r="H33">
-            <v>152626.48032443525</v>
+            <v>165075.41370963273</v>
           </cell>
         </row>
       </sheetData>
@@ -448,7 +442,7 @@
       <sheetData sheetId="2">
         <row r="33">
           <cell r="H33">
-            <v>9360.1588323547512</v>
+            <v>7889.4301745302082</v>
           </cell>
         </row>
       </sheetData>
@@ -500,7 +494,7 @@
       <sheetData sheetId="2">
         <row r="33">
           <cell r="H33">
-            <v>107592.46665874901</v>
+            <v>106410.99448837007</v>
           </cell>
         </row>
       </sheetData>
@@ -550,11 +544,6 @@
       <sheetData sheetId="0"/>
       <sheetData sheetId="1"/>
       <sheetData sheetId="2">
-        <row r="8">
-          <cell r="A8">
-            <v>44866</v>
-          </cell>
-        </row>
         <row r="33">
           <cell r="H33">
             <v>388243.27028779039</v>
@@ -681,8 +670,8 @@
       <sheetName val="Summary"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
       <sheetData sheetId="2">
         <row r="33">
           <cell r="H33">
@@ -790,7 +779,7 @@
       <sheetData sheetId="2">
         <row r="33">
           <cell r="H33">
-            <v>165903.58128421317</v>
+            <v>161593.12051305853</v>
           </cell>
         </row>
       </sheetData>
@@ -1159,7 +1148,7 @@
   <dimension ref="A2:K26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -1177,9 +1166,9 @@
     <col min="12" max="13" width="9.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B2" s="20"/>
       <c r="C2" s="20"/>
@@ -1189,7 +1178,7 @@
       <c r="G2" s="20"/>
       <c r="H2" s="20"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -1212,7 +1201,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1239,7 +1228,7 @@
         <v>45627</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1267,7 +1256,7 @@
         <v>45627</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -1295,7 +1284,7 @@
         <v>45627</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1323,7 +1312,7 @@
         <v>45627</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -1351,7 +1340,7 @@
         <v>45627</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -1379,7 +1368,7 @@
         <v>45627</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -1407,39 +1396,35 @@
         <v>45627</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="9" t="s">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="10">
+      <c r="B12" s="8">
         <f>+[8]Summary!$H$33</f>
-        <v>165903.58128421317</v>
-      </c>
-      <c r="C12" s="10">
+        <v>161593.12051305853</v>
+      </c>
+      <c r="C12" s="8">
         <f t="shared" si="0"/>
-        <v>8295.1790642106589</v>
-      </c>
-      <c r="D12" s="11">
+        <v>8079.6560256529265</v>
+      </c>
+      <c r="D12" s="3">
         <f t="shared" si="3"/>
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="E12" s="12">
+      <c r="E12" s="19">
         <f t="shared" si="1"/>
-        <v>12442.768596315987</v>
-      </c>
-      <c r="F12" s="12">
+        <v>12119.48403847939</v>
+      </c>
+      <c r="F12" s="19">
         <f t="shared" si="2"/>
-        <v>186641.52894473981</v>
-      </c>
-      <c r="G12" s="9"/>
-      <c r="H12" s="15">
-        <v>45566</v>
-      </c>
-      <c r="I12" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+        <v>181792.26057719084</v>
+      </c>
+      <c r="H12" s="13">
+        <v>45627</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -1467,69 +1452,61 @@
         <v>45627</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="9" t="s">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="10">
+      <c r="B14" s="8">
         <f>+[10]Summary!$H$33</f>
-        <v>152626.48032443525</v>
-      </c>
-      <c r="C14" s="10">
+        <v>165075.41370963273</v>
+      </c>
+      <c r="C14" s="8">
         <f t="shared" si="0"/>
-        <v>7631.3240162217626</v>
-      </c>
-      <c r="D14" s="11">
+        <v>8253.770685481637</v>
+      </c>
+      <c r="D14" s="3">
         <v>0.05</v>
       </c>
-      <c r="E14" s="12">
+      <c r="E14" s="19">
         <f t="shared" si="1"/>
-        <v>7631.3240162217626</v>
-      </c>
-      <c r="F14" s="12">
+        <v>8253.770685481637</v>
+      </c>
+      <c r="F14" s="19">
         <f t="shared" si="2"/>
-        <v>167889.12835687879</v>
-      </c>
-      <c r="G14" s="9"/>
-      <c r="H14" s="15">
-        <v>45597</v>
-      </c>
-      <c r="I14" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="9" t="s">
+        <v>181582.955080596</v>
+      </c>
+      <c r="H14" s="13">
+        <v>45627</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="10">
+      <c r="B15" s="8">
         <f>+[11]Summary!$H$33</f>
-        <v>9360.1588323547512</v>
-      </c>
-      <c r="C15" s="10">
+        <v>7889.4301745302082</v>
+      </c>
+      <c r="C15" s="8">
         <f t="shared" si="0"/>
-        <v>468.00794161773757</v>
-      </c>
-      <c r="D15" s="11">
+        <v>394.47150872651042</v>
+      </c>
+      <c r="D15" s="3">
         <v>0.05</v>
       </c>
-      <c r="E15" s="12">
+      <c r="E15" s="19">
         <f t="shared" si="1"/>
-        <v>468.00794161773757</v>
-      </c>
-      <c r="F15" s="12">
+        <v>394.47150872651042</v>
+      </c>
+      <c r="F15" s="19">
         <f t="shared" si="2"/>
-        <v>10296.174715590227</v>
-      </c>
-      <c r="G15" s="9"/>
-      <c r="H15" s="15">
-        <v>45597</v>
-      </c>
-      <c r="I15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+        <v>8678.3731919832298</v>
+      </c>
+      <c r="H15" s="13">
+        <v>45627</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -1558,35 +1535,31 @@
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="9" t="s">
+      <c r="A17" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="10">
+      <c r="B17" s="8">
         <f>+[13]Summary!$H$33</f>
-        <v>107592.46665874901</v>
-      </c>
-      <c r="C17" s="10">
+        <v>106410.99448837007</v>
+      </c>
+      <c r="C17" s="8">
         <f t="shared" si="0"/>
-        <v>5379.6233329374509</v>
-      </c>
-      <c r="D17" s="11">
+        <v>5320.5497244185035</v>
+      </c>
+      <c r="D17" s="3">
         <f t="shared" ref="D17:D19" si="4">+D6</f>
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="E17" s="12">
+      <c r="E17" s="19">
         <f t="shared" si="1"/>
-        <v>8069.4349994061749</v>
-      </c>
-      <c r="F17" s="12">
+        <v>7980.8245866277548</v>
+      </c>
+      <c r="F17" s="19">
         <f t="shared" si="2"/>
-        <v>121041.52499109264</v>
-      </c>
-      <c r="G17" s="9"/>
-      <c r="H17" s="15">
-        <v>45597</v>
-      </c>
-      <c r="I17" t="s">
-        <v>37</v>
+        <v>119712.36879941633</v>
+      </c>
+      <c r="H17" s="13">
+        <v>45627</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
@@ -1646,7 +1619,7 @@
         <v>45566</v>
       </c>
       <c r="I19" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
@@ -1659,20 +1632,20 @@
       </c>
       <c r="B21" s="6">
         <f>+SUM(B5:B20)</f>
-        <v>1482375.316664977</v>
+        <v>1487861.5884508165</v>
       </c>
       <c r="C21" s="6">
         <f>+SUM(C5:C20)</f>
-        <v>74118.76583324885</v>
+        <v>74393.079422540817</v>
       </c>
       <c r="D21" s="5"/>
       <c r="E21" s="6">
         <f>+SUM(E5:E20)</f>
-        <v>107128.48277095353</v>
+        <v>107265.49803670714</v>
       </c>
       <c r="F21" s="6">
         <f>+SUM(F5:F20)</f>
-        <v>1663622.5652691796</v>
+        <v>1669520.1659100645</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
